--- a/database/industries/methanol/zagros/product/yearly_seprated.xlsx
+++ b/database/industries/methanol/zagros/product/yearly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\methanol\zagros\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\zagros\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217FDDE4-5D18-4C9B-A97A-086EB33A45A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276BD993-1A22-43D6-9FEE-0C09354522A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="47">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>زاگرس-پتروشیمی زاگرس</t>
@@ -35,21 +35,6 @@
   </si>
   <si>
     <t>مقدار فروش</t>
-  </si>
-  <si>
-    <t>دوازده ماهه منتهی به 1391/12</t>
-  </si>
-  <si>
-    <t>دوازده ماهه منتهی به 1392/12</t>
-  </si>
-  <si>
-    <t>دوازده ماهه منتهی به 1393/12</t>
-  </si>
-  <si>
-    <t>دوازده ماهه منتهی به 1394/12</t>
-  </si>
-  <si>
-    <t>دوازده ماهه منتهی به 1395/12</t>
   </si>
   <si>
     <t>دوازده ماهه منتهی به 1396/12</t>
@@ -654,16 +639,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N80"/>
+  <dimension ref="B1:I80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="14" width="20" customWidth="1"/>
+    <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -672,13 +657,8 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -689,13 +669,8 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -706,13 +681,8 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -721,13 +691,8 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -738,13 +703,8 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -755,13 +715,8 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -770,13 +725,8 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -797,23 +747,8 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -822,15 +757,10 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -839,93 +769,58 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="11">
+        <v>13</v>
+      </c>
+      <c r="F11" s="11">
         <v>1934147</v>
       </c>
-      <c r="L11" s="11">
+      <c r="G11" s="11">
         <v>1215060</v>
       </c>
-      <c r="M11" s="11">
+      <c r="H11" s="11">
         <v>1258274</v>
       </c>
-      <c r="N11" s="11">
+      <c r="I11" s="11">
         <v>990671</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" s="13">
+        <v>13</v>
+      </c>
+      <c r="F12" s="13">
         <v>170105</v>
       </c>
-      <c r="L12" s="13">
+      <c r="G12" s="13">
         <v>158799</v>
       </c>
-      <c r="M12" s="13">
+      <c r="H12" s="13">
         <v>167444</v>
       </c>
-      <c r="N12" s="13">
+      <c r="I12" s="13">
         <v>204897</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -933,36 +828,21 @@
         <v>0</v>
       </c>
       <c r="F13" s="15">
-        <v>0</v>
+        <v>2104252</v>
       </c>
       <c r="G13" s="15">
-        <v>0</v>
+        <v>1373859</v>
       </c>
       <c r="H13" s="15">
-        <v>0</v>
+        <v>1425718</v>
       </c>
       <c r="I13" s="15">
-        <v>0</v>
-      </c>
-      <c r="J13" s="15">
-        <v>0</v>
-      </c>
-      <c r="K13" s="15">
-        <v>2104252</v>
-      </c>
-      <c r="L13" s="15">
-        <v>1373859</v>
-      </c>
-      <c r="M13" s="15">
-        <v>1425718</v>
-      </c>
-      <c r="N13" s="15">
         <v>1195568</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -971,54 +851,34 @@
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" s="11">
+        <v>13</v>
+      </c>
+      <c r="F15" s="11">
         <v>2697817</v>
       </c>
-      <c r="L15" s="11">
+      <c r="G15" s="11">
         <v>2659804</v>
       </c>
-      <c r="M15" s="11">
+      <c r="H15" s="11">
         <v>2847978</v>
       </c>
-      <c r="N15" s="11">
+      <c r="I15" s="11">
         <v>2243060</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="16" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
@@ -1026,36 +886,21 @@
         <v>0</v>
       </c>
       <c r="F16" s="17">
-        <v>0</v>
+        <v>2697817</v>
       </c>
       <c r="G16" s="17">
-        <v>0</v>
+        <v>2659804</v>
       </c>
       <c r="H16" s="17">
-        <v>0</v>
+        <v>2847978</v>
       </c>
       <c r="I16" s="17">
-        <v>0</v>
-      </c>
-      <c r="J16" s="17">
-        <v>0</v>
-      </c>
-      <c r="K16" s="17">
-        <v>2697817</v>
-      </c>
-      <c r="L16" s="17">
-        <v>2659804</v>
-      </c>
-      <c r="M16" s="17">
-        <v>2847978</v>
-      </c>
-      <c r="N16" s="17">
         <v>2243060</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
@@ -1064,15 +909,10 @@
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
@@ -1091,101 +931,56 @@
       <c r="I18" s="15">
         <v>0</v>
       </c>
-      <c r="J18" s="15">
-        <v>0</v>
-      </c>
-      <c r="K18" s="15">
-        <v>0</v>
-      </c>
-      <c r="L18" s="15">
-        <v>0</v>
-      </c>
-      <c r="M18" s="15">
-        <v>0</v>
-      </c>
-      <c r="N18" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="F19" s="17">
+        <v>0</v>
+      </c>
+      <c r="G19" s="17">
+        <v>0</v>
+      </c>
+      <c r="H19" s="17">
+        <v>0</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19" s="17">
-        <v>0</v>
-      </c>
-      <c r="L19" s="17">
-        <v>0</v>
-      </c>
-      <c r="M19" s="17">
-        <v>0</v>
-      </c>
-      <c r="N19" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K20" s="15">
-        <v>0</v>
-      </c>
-      <c r="L20" s="15">
-        <v>0</v>
-      </c>
-      <c r="M20" s="15">
-        <v>0</v>
-      </c>
-      <c r="N20" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="F20" s="15">
+        <v>0</v>
+      </c>
+      <c r="G20" s="15">
+        <v>0</v>
+      </c>
+      <c r="H20" s="15">
+        <v>0</v>
+      </c>
+      <c r="I20" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -1193,34 +988,19 @@
         <v>0</v>
       </c>
       <c r="F21" s="17">
-        <v>0</v>
+        <v>4802069</v>
       </c>
       <c r="G21" s="17">
-        <v>0</v>
+        <v>4033663</v>
       </c>
       <c r="H21" s="17">
-        <v>0</v>
+        <v>4273696</v>
       </c>
       <c r="I21" s="17">
-        <v>0</v>
-      </c>
-      <c r="J21" s="17">
-        <v>0</v>
-      </c>
-      <c r="K21" s="17">
-        <v>4802069</v>
-      </c>
-      <c r="L21" s="17">
-        <v>4033663</v>
-      </c>
-      <c r="M21" s="17">
-        <v>4273696</v>
-      </c>
-      <c r="N21" s="17">
         <v>3438628</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1229,13 +1009,8 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1244,13 +1019,8 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1259,15 +1029,10 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -1286,23 +1051,8 @@
       <c r="I25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J25" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M25" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N25" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1311,15 +1061,10 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -1328,93 +1073,58 @@
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J28" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K28" s="11">
+        <v>13</v>
+      </c>
+      <c r="F28" s="11">
         <v>858992</v>
       </c>
-      <c r="L28" s="11">
+      <c r="G28" s="11">
         <v>816677</v>
       </c>
-      <c r="M28" s="11">
+      <c r="H28" s="11">
         <v>1008158</v>
       </c>
-      <c r="N28" s="11">
+      <c r="I28" s="11">
         <v>793747</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I29" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J29" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K29" s="13">
+        <v>13</v>
+      </c>
+      <c r="F29" s="13">
         <v>3141996</v>
       </c>
-      <c r="L29" s="13">
+      <c r="G29" s="13">
         <v>3336473</v>
       </c>
-      <c r="M29" s="13">
+      <c r="H29" s="13">
         <v>6080370</v>
       </c>
-      <c r="N29" s="13">
+      <c r="I29" s="13">
         <v>13689300</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
@@ -1422,36 +1132,21 @@
         <v>0</v>
       </c>
       <c r="F30" s="15">
-        <v>0</v>
+        <v>4000988</v>
       </c>
       <c r="G30" s="15">
-        <v>0</v>
+        <v>4153150</v>
       </c>
       <c r="H30" s="15">
-        <v>0</v>
+        <v>7088528</v>
       </c>
       <c r="I30" s="15">
-        <v>0</v>
-      </c>
-      <c r="J30" s="15">
-        <v>0</v>
-      </c>
-      <c r="K30" s="15">
-        <v>4000988</v>
-      </c>
-      <c r="L30" s="15">
-        <v>4153150</v>
-      </c>
-      <c r="M30" s="15">
-        <v>7088528</v>
-      </c>
-      <c r="N30" s="15">
         <v>14483047</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -1460,54 +1155,34 @@
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J32" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K32" s="11">
+        <v>13</v>
+      </c>
+      <c r="F32" s="11">
         <v>69844445</v>
       </c>
-      <c r="L32" s="11">
+      <c r="G32" s="11">
         <v>73878798</v>
       </c>
-      <c r="M32" s="11">
+      <c r="H32" s="11">
         <v>136146240</v>
       </c>
-      <c r="N32" s="11">
+      <c r="I32" s="11">
         <v>178145397</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="16" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
@@ -1515,36 +1190,21 @@
         <v>0</v>
       </c>
       <c r="F33" s="17">
-        <v>0</v>
+        <v>69844445</v>
       </c>
       <c r="G33" s="17">
-        <v>0</v>
+        <v>73878798</v>
       </c>
       <c r="H33" s="17">
-        <v>0</v>
+        <v>136146240</v>
       </c>
       <c r="I33" s="17">
-        <v>0</v>
-      </c>
-      <c r="J33" s="17">
-        <v>0</v>
-      </c>
-      <c r="K33" s="17">
-        <v>69844445</v>
-      </c>
-      <c r="L33" s="17">
-        <v>73878798</v>
-      </c>
-      <c r="M33" s="17">
-        <v>136146240</v>
-      </c>
-      <c r="N33" s="17">
         <v>178145397</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
@@ -1553,15 +1213,10 @@
       <c r="G34" s="19"/>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
@@ -1580,103 +1235,58 @@
       <c r="I35" s="15">
         <v>0</v>
       </c>
-      <c r="J35" s="15">
-        <v>0</v>
-      </c>
-      <c r="K35" s="15">
-        <v>0</v>
-      </c>
-      <c r="L35" s="15">
-        <v>0</v>
-      </c>
-      <c r="M35" s="15">
-        <v>0</v>
-      </c>
-      <c r="N35" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D36" s="17"/>
       <c r="E36" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H36" s="17" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="F36" s="17">
+        <v>0</v>
+      </c>
+      <c r="G36" s="17">
+        <v>0</v>
+      </c>
+      <c r="H36" s="17">
+        <v>0</v>
       </c>
       <c r="I36" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J36" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K36" s="17">
-        <v>0</v>
-      </c>
-      <c r="L36" s="17">
-        <v>0</v>
-      </c>
-      <c r="M36" s="17">
-        <v>0</v>
-      </c>
-      <c r="N36" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D37" s="15"/>
       <c r="E37" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H37" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I37" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J37" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K37" s="15">
-        <v>0</v>
-      </c>
-      <c r="L37" s="15">
-        <v>0</v>
-      </c>
-      <c r="M37" s="15">
-        <v>0</v>
-      </c>
-      <c r="N37" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="F37" s="15">
+        <v>0</v>
+      </c>
+      <c r="G37" s="15">
+        <v>0</v>
+      </c>
+      <c r="H37" s="15">
+        <v>0</v>
+      </c>
+      <c r="I37" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C38" s="17"/>
       <c r="D38" s="17"/>
@@ -1684,34 +1294,19 @@
         <v>0</v>
       </c>
       <c r="F38" s="17">
-        <v>0</v>
+        <v>73845433</v>
       </c>
       <c r="G38" s="17">
-        <v>0</v>
+        <v>78031948</v>
       </c>
       <c r="H38" s="17">
-        <v>0</v>
+        <v>143234768</v>
       </c>
       <c r="I38" s="17">
-        <v>0</v>
-      </c>
-      <c r="J38" s="17">
-        <v>0</v>
-      </c>
-      <c r="K38" s="17">
-        <v>73845433</v>
-      </c>
-      <c r="L38" s="17">
-        <v>78031948</v>
-      </c>
-      <c r="M38" s="17">
-        <v>143234768</v>
-      </c>
-      <c r="N38" s="17">
         <v>192628444</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1720,13 +1315,8 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1735,13 +1325,8 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1750,15 +1335,10 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-    </row>
-    <row r="42" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B42" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -1777,23 +1357,8 @@
       <c r="I42" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J42" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K42" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L42" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M42" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N42" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1802,15 +1367,10 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
@@ -1819,93 +1379,58 @@
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
-      <c r="N44" s="9"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I45" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J45" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K45" s="11">
+        <v>13</v>
+      </c>
+      <c r="F45" s="11">
         <v>444119</v>
       </c>
-      <c r="L45" s="11">
+      <c r="G45" s="11">
         <v>672129</v>
       </c>
-      <c r="M45" s="11">
+      <c r="H45" s="11">
         <v>801223</v>
       </c>
-      <c r="N45" s="11">
+      <c r="I45" s="11">
         <v>801222</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D46" s="13"/>
       <c r="E46" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F46" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H46" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I46" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J46" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K46" s="13">
+        <v>13</v>
+      </c>
+      <c r="F46" s="13">
         <v>18470921</v>
       </c>
-      <c r="L46" s="13">
+      <c r="G46" s="13">
         <v>21010668</v>
       </c>
-      <c r="M46" s="13">
+      <c r="H46" s="13">
         <v>36312857</v>
       </c>
-      <c r="N46" s="13">
+      <c r="I46" s="13">
         <v>66810641</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -1914,52 +1439,32 @@
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H48" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I48" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J48" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K48" s="11">
+        <v>13</v>
+      </c>
+      <c r="F48" s="11">
         <v>25889245</v>
       </c>
-      <c r="L48" s="11">
+      <c r="G48" s="11">
         <v>27776031</v>
       </c>
-      <c r="M48" s="11">
+      <c r="H48" s="11">
         <v>47804527</v>
       </c>
-      <c r="N48" s="11">
+      <c r="I48" s="11">
         <v>79420701</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1968,13 +1473,8 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1983,13 +1483,8 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1998,15 +1493,10 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-    </row>
-    <row r="52" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B52" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -2025,23 +1515,8 @@
       <c r="I52" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J52" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K52" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L52" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M52" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N52" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2050,15 +1525,10 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
@@ -2067,93 +1537,58 @@
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
-      <c r="L54" s="9"/>
-      <c r="M54" s="9"/>
-      <c r="N54" s="9"/>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F55" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H55" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I55" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J55" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K55" s="11">
+        <v>13</v>
+      </c>
+      <c r="F55" s="11">
         <v>-91973</v>
       </c>
-      <c r="L55" s="11">
+      <c r="G55" s="11">
         <v>-85619</v>
       </c>
-      <c r="M55" s="11">
+      <c r="H55" s="11">
         <v>-107695</v>
       </c>
-      <c r="N55" s="11">
+      <c r="I55" s="11">
         <v>-146927</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F56" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H56" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I56" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J56" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K56" s="13">
+        <v>13</v>
+      </c>
+      <c r="F56" s="13">
         <v>-1764040</v>
       </c>
-      <c r="L56" s="13">
+      <c r="G56" s="13">
         <v>-1988673</v>
       </c>
-      <c r="M56" s="13">
+      <c r="H56" s="13">
         <v>-3400416</v>
       </c>
-      <c r="N56" s="13">
+      <c r="I56" s="13">
         <v>-11055048</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="14" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
@@ -2161,36 +1596,21 @@
         <v>0</v>
       </c>
       <c r="F57" s="15">
-        <v>0</v>
+        <v>-1856013</v>
       </c>
       <c r="G57" s="15">
-        <v>0</v>
+        <v>-2074292</v>
       </c>
       <c r="H57" s="15">
-        <v>0</v>
+        <v>-3508111</v>
       </c>
       <c r="I57" s="15">
-        <v>0</v>
-      </c>
-      <c r="J57" s="15">
-        <v>0</v>
-      </c>
-      <c r="K57" s="15">
-        <v>-1856013</v>
-      </c>
-      <c r="L57" s="15">
-        <v>-2074292</v>
-      </c>
-      <c r="M57" s="15">
-        <v>-3508111</v>
-      </c>
-      <c r="N57" s="15">
         <v>-11201975</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
@@ -2199,54 +1619,34 @@
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
-      <c r="K58" s="9"/>
-      <c r="L58" s="9"/>
-      <c r="M58" s="9"/>
-      <c r="N58" s="9"/>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F59" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H59" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I59" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J59" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K59" s="11">
+        <v>13</v>
+      </c>
+      <c r="F59" s="11">
         <v>-27977177</v>
       </c>
-      <c r="L59" s="11">
+      <c r="G59" s="11">
         <v>-33309266</v>
       </c>
-      <c r="M59" s="11">
+      <c r="H59" s="11">
         <v>-57836113</v>
       </c>
-      <c r="N59" s="11">
+      <c r="I59" s="11">
         <v>-121022448</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="16" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C60" s="17"/>
       <c r="D60" s="17"/>
@@ -2254,36 +1654,21 @@
         <v>0</v>
       </c>
       <c r="F60" s="17">
-        <v>0</v>
+        <v>-27977177</v>
       </c>
       <c r="G60" s="17">
-        <v>0</v>
+        <v>-33309266</v>
       </c>
       <c r="H60" s="17">
-        <v>0</v>
+        <v>-57836113</v>
       </c>
       <c r="I60" s="17">
-        <v>0</v>
-      </c>
-      <c r="J60" s="17">
-        <v>0</v>
-      </c>
-      <c r="K60" s="17">
-        <v>-27977177</v>
-      </c>
-      <c r="L60" s="17">
-        <v>-33309266</v>
-      </c>
-      <c r="M60" s="17">
-        <v>-57836113</v>
-      </c>
-      <c r="N60" s="17">
         <v>-121022448</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="18" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C61" s="19"/>
       <c r="D61" s="19"/>
@@ -2292,15 +1677,10 @@
       <c r="G61" s="19"/>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
-      <c r="J61" s="19"/>
-      <c r="K61" s="19"/>
-      <c r="L61" s="19"/>
-      <c r="M61" s="19"/>
-      <c r="N61" s="19"/>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="14" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C62" s="15"/>
       <c r="D62" s="15"/>
@@ -2319,103 +1699,58 @@
       <c r="I62" s="15">
         <v>0</v>
       </c>
-      <c r="J62" s="15">
-        <v>0</v>
-      </c>
-      <c r="K62" s="15">
-        <v>0</v>
-      </c>
-      <c r="L62" s="15">
-        <v>0</v>
-      </c>
-      <c r="M62" s="15">
-        <v>0</v>
-      </c>
-      <c r="N62" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D63" s="17"/>
       <c r="E63" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F63" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G63" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H63" s="17" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="F63" s="17">
+        <v>0</v>
+      </c>
+      <c r="G63" s="17">
+        <v>0</v>
+      </c>
+      <c r="H63" s="17">
+        <v>0</v>
       </c>
       <c r="I63" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J63" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K63" s="17">
-        <v>0</v>
-      </c>
-      <c r="L63" s="17">
-        <v>0</v>
-      </c>
-      <c r="M63" s="17">
-        <v>0</v>
-      </c>
-      <c r="N63" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="14" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D64" s="15"/>
       <c r="E64" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F64" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H64" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I64" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J64" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K64" s="15">
-        <v>0</v>
-      </c>
-      <c r="L64" s="15">
-        <v>0</v>
-      </c>
-      <c r="M64" s="15">
-        <v>0</v>
-      </c>
-      <c r="N64" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="F64" s="15">
+        <v>0</v>
+      </c>
+      <c r="G64" s="15">
+        <v>0</v>
+      </c>
+      <c r="H64" s="15">
+        <v>0</v>
+      </c>
+      <c r="I64" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C65" s="17"/>
       <c r="D65" s="17"/>
@@ -2423,34 +1758,19 @@
         <v>0</v>
       </c>
       <c r="F65" s="17">
-        <v>0</v>
+        <v>-29833190</v>
       </c>
       <c r="G65" s="17">
-        <v>0</v>
+        <v>-35383558</v>
       </c>
       <c r="H65" s="17">
-        <v>0</v>
+        <v>-61344224</v>
       </c>
       <c r="I65" s="17">
-        <v>0</v>
-      </c>
-      <c r="J65" s="17">
-        <v>0</v>
-      </c>
-      <c r="K65" s="17">
-        <v>-29833190</v>
-      </c>
-      <c r="L65" s="17">
-        <v>-35383558</v>
-      </c>
-      <c r="M65" s="17">
-        <v>-61344224</v>
-      </c>
-      <c r="N65" s="17">
         <v>-132224423</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2459,13 +1779,8 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2474,13 +1789,8 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2489,15 +1799,10 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
-    </row>
-    <row r="69" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B69" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -2516,23 +1821,8 @@
       <c r="I69" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J69" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K69" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L69" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M69" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N69" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2541,15 +1831,10 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -2558,93 +1843,58 @@
       <c r="G71" s="9"/>
       <c r="H71" s="9"/>
       <c r="I71" s="9"/>
-      <c r="J71" s="9"/>
-      <c r="K71" s="9"/>
-      <c r="L71" s="9"/>
-      <c r="M71" s="9"/>
-      <c r="N71" s="9"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F72" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H72" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I72" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J72" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K72" s="11">
+        <v>13</v>
+      </c>
+      <c r="F72" s="11">
         <v>767019</v>
       </c>
-      <c r="L72" s="11">
+      <c r="G72" s="11">
         <v>731058</v>
       </c>
-      <c r="M72" s="11">
+      <c r="H72" s="11">
         <v>900463</v>
       </c>
-      <c r="N72" s="11">
+      <c r="I72" s="11">
         <v>646820</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D73" s="13"/>
       <c r="E73" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F73" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H73" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I73" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J73" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K73" s="13">
+        <v>13</v>
+      </c>
+      <c r="F73" s="13">
         <v>1377956</v>
       </c>
-      <c r="L73" s="13">
+      <c r="G73" s="13">
         <v>1347800</v>
       </c>
-      <c r="M73" s="13">
+      <c r="H73" s="13">
         <v>2679954</v>
       </c>
-      <c r="N73" s="13">
+      <c r="I73" s="13">
         <v>2634252</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
@@ -2652,36 +1902,21 @@
         <v>0</v>
       </c>
       <c r="F74" s="15">
-        <v>0</v>
+        <v>2144975</v>
       </c>
       <c r="G74" s="15">
-        <v>0</v>
+        <v>2078858</v>
       </c>
       <c r="H74" s="15">
-        <v>0</v>
+        <v>3580417</v>
       </c>
       <c r="I74" s="15">
-        <v>0</v>
-      </c>
-      <c r="J74" s="15">
-        <v>0</v>
-      </c>
-      <c r="K74" s="15">
-        <v>2144975</v>
-      </c>
-      <c r="L74" s="15">
-        <v>2078858</v>
-      </c>
-      <c r="M74" s="15">
-        <v>3580417</v>
-      </c>
-      <c r="N74" s="15">
         <v>3281072</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
@@ -2690,54 +1925,34 @@
       <c r="G75" s="9"/>
       <c r="H75" s="9"/>
       <c r="I75" s="9"/>
-      <c r="J75" s="9"/>
-      <c r="K75" s="9"/>
-      <c r="L75" s="9"/>
-      <c r="M75" s="9"/>
-      <c r="N75" s="9"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F76" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G76" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H76" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I76" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J76" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K76" s="11">
+        <v>13</v>
+      </c>
+      <c r="F76" s="11">
         <v>41867268</v>
       </c>
-      <c r="L76" s="11">
+      <c r="G76" s="11">
         <v>40569532</v>
       </c>
-      <c r="M76" s="11">
+      <c r="H76" s="11">
         <v>78310127</v>
       </c>
-      <c r="N76" s="11">
+      <c r="I76" s="11">
         <v>57122949</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="16" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C77" s="17"/>
       <c r="D77" s="17"/>
@@ -2745,36 +1960,21 @@
         <v>0</v>
       </c>
       <c r="F77" s="17">
-        <v>0</v>
+        <v>41867268</v>
       </c>
       <c r="G77" s="17">
-        <v>0</v>
+        <v>40569532</v>
       </c>
       <c r="H77" s="17">
-        <v>0</v>
+        <v>78310127</v>
       </c>
       <c r="I77" s="17">
-        <v>0</v>
-      </c>
-      <c r="J77" s="17">
-        <v>0</v>
-      </c>
-      <c r="K77" s="17">
-        <v>41867268</v>
-      </c>
-      <c r="L77" s="17">
-        <v>40569532</v>
-      </c>
-      <c r="M77" s="17">
-        <v>78310127</v>
-      </c>
-      <c r="N77" s="17">
         <v>57122949</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="18" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C78" s="19"/>
       <c r="D78" s="19"/>
@@ -2783,15 +1983,10 @@
       <c r="G78" s="19"/>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
-      <c r="J78" s="19"/>
-      <c r="K78" s="19"/>
-      <c r="L78" s="19"/>
-      <c r="M78" s="19"/>
-      <c r="N78" s="19"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C79" s="15"/>
       <c r="D79" s="15"/>
@@ -2810,25 +2005,10 @@
       <c r="I79" s="15">
         <v>0</v>
       </c>
-      <c r="J79" s="15">
-        <v>0</v>
-      </c>
-      <c r="K79" s="15">
-        <v>0</v>
-      </c>
-      <c r="L79" s="15">
-        <v>0</v>
-      </c>
-      <c r="M79" s="15">
-        <v>0</v>
-      </c>
-      <c r="N79" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C80" s="17"/>
       <c r="D80" s="17"/>
@@ -2836,30 +2016,15 @@
         <v>0</v>
       </c>
       <c r="F80" s="17">
-        <v>0</v>
+        <v>44012243</v>
       </c>
       <c r="G80" s="17">
-        <v>0</v>
+        <v>42648390</v>
       </c>
       <c r="H80" s="17">
-        <v>0</v>
+        <v>81890544</v>
       </c>
       <c r="I80" s="17">
-        <v>0</v>
-      </c>
-      <c r="J80" s="17">
-        <v>0</v>
-      </c>
-      <c r="K80" s="17">
-        <v>44012243</v>
-      </c>
-      <c r="L80" s="17">
-        <v>42648390</v>
-      </c>
-      <c r="M80" s="17">
-        <v>81890544</v>
-      </c>
-      <c r="N80" s="17">
         <v>60404021</v>
       </c>
     </row>

--- a/database/industries/methanol/zagros/product/yearly_seprated.xlsx
+++ b/database/industries/methanol/zagros/product/yearly_seprated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\zagros\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276BD993-1A22-43D6-9FEE-0C09354522A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2269E636-BCB3-40DD-B3D6-DD35669E9F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="47">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
     <t>دوازده ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>مقدار فروش داخلی</t>
   </si>
   <si>
@@ -61,31 +61,31 @@
     <t>تن</t>
   </si>
   <si>
+    <t>متانول</t>
+  </si>
+  <si>
+    <t>جمع فروش داخلی</t>
+  </si>
+  <si>
+    <t>مقدار فروش خارجی</t>
+  </si>
+  <si>
+    <t>جمع فروش خارجی</t>
+  </si>
+  <si>
+    <t>مقدار فروش درآمد ارائه خدمات</t>
+  </si>
+  <si>
+    <t>جمع فروش خدمات</t>
+  </si>
+  <si>
+    <t>برگشت از فروش</t>
+  </si>
+  <si>
+    <t>ریال</t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>متانول</t>
-  </si>
-  <si>
-    <t>جمع فروش داخلی</t>
-  </si>
-  <si>
-    <t>مقدار فروش خارجی</t>
-  </si>
-  <si>
-    <t>جمع فروش خارجی</t>
-  </si>
-  <si>
-    <t>مقدار فروش درآمد ارائه خدمات</t>
-  </si>
-  <si>
-    <t>جمع فروش خدمات</t>
-  </si>
-  <si>
-    <t>برگشت از فروش</t>
-  </si>
-  <si>
-    <t>ریال</t>
   </si>
   <si>
     <t>سایر / تخفیفات</t>
@@ -643,12 +643,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -658,7 +658,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -670,7 +670,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -682,7 +682,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -692,7 +692,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -704,7 +704,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -716,7 +716,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -726,7 +726,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -748,7 +748,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -758,7 +758,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -770,7 +770,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
@@ -778,71 +778,71 @@
         <v>12</v>
       </c>
       <c r="D11" s="11"/>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="11">
+        <v>1934147</v>
+      </c>
+      <c r="F11" s="11">
+        <v>1215060</v>
+      </c>
+      <c r="G11" s="11">
+        <v>1258274</v>
+      </c>
+      <c r="H11" s="11">
+        <v>990671</v>
+      </c>
+      <c r="I11" s="11">
+        <v>908083</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F11" s="11">
-        <v>1934147</v>
-      </c>
-      <c r="G11" s="11">
-        <v>1215060</v>
-      </c>
-      <c r="H11" s="11">
-        <v>1258274</v>
-      </c>
-      <c r="I11" s="11">
-        <v>990671</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="13"/>
-      <c r="E12" s="13" t="s">
-        <v>13</v>
+      <c r="E12" s="13">
+        <v>170105</v>
       </c>
       <c r="F12" s="13">
-        <v>170105</v>
+        <v>158799</v>
       </c>
       <c r="G12" s="13">
-        <v>158799</v>
+        <v>167444</v>
       </c>
       <c r="H12" s="13">
-        <v>167444</v>
+        <v>204897</v>
       </c>
       <c r="I12" s="13">
-        <v>204897</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>186689</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15">
-        <v>0</v>
+        <v>2104252</v>
       </c>
       <c r="F13" s="15">
-        <v>2104252</v>
+        <v>1373859</v>
       </c>
       <c r="G13" s="15">
-        <v>1373859</v>
+        <v>1425718</v>
       </c>
       <c r="H13" s="15">
-        <v>1425718</v>
+        <v>1195568</v>
       </c>
       <c r="I13" s="15">
-        <v>1195568</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1094772</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -852,55 +852,55 @@
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="11"/>
-      <c r="E15" s="11" t="s">
-        <v>13</v>
+      <c r="E15" s="11">
+        <v>2697817</v>
       </c>
       <c r="F15" s="11">
-        <v>2697817</v>
+        <v>2659804</v>
       </c>
       <c r="G15" s="11">
-        <v>2659804</v>
+        <v>2847978</v>
       </c>
       <c r="H15" s="11">
-        <v>2847978</v>
+        <v>2243060</v>
       </c>
       <c r="I15" s="11">
-        <v>2243060</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2273450</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17">
-        <v>0</v>
+        <v>2697817</v>
       </c>
       <c r="F16" s="17">
-        <v>2697817</v>
+        <v>2659804</v>
       </c>
       <c r="G16" s="17">
-        <v>2659804</v>
+        <v>2847978</v>
       </c>
       <c r="H16" s="17">
-        <v>2847978</v>
+        <v>2243060</v>
       </c>
       <c r="I16" s="17">
-        <v>2243060</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2273450</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
@@ -910,9 +910,9 @@
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
@@ -932,38 +932,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="D19" s="17"/>
+      <c r="E19" s="17">
+        <v>0</v>
+      </c>
+      <c r="F19" s="17">
+        <v>0</v>
+      </c>
+      <c r="G19" s="17">
+        <v>0</v>
+      </c>
+      <c r="H19" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="17">
-        <v>0</v>
-      </c>
-      <c r="G19" s="17">
-        <v>0</v>
-      </c>
-      <c r="H19" s="17">
-        <v>0</v>
-      </c>
       <c r="I19" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
-      <c r="E20" s="15" t="s">
-        <v>13</v>
+      <c r="E20" s="15">
+        <v>0</v>
       </c>
       <c r="F20" s="15">
         <v>0</v>
@@ -978,29 +978,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17">
-        <v>0</v>
+        <v>4802069</v>
       </c>
       <c r="F21" s="17">
-        <v>4802069</v>
+        <v>4033663</v>
       </c>
       <c r="G21" s="17">
-        <v>4033663</v>
+        <v>4273696</v>
       </c>
       <c r="H21" s="17">
-        <v>4273696</v>
+        <v>3438628</v>
       </c>
       <c r="I21" s="17">
-        <v>3438628</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3368222</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1010,7 +1010,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1020,7 +1020,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1030,7 +1030,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
         <v>24</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1062,7 +1062,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>25</v>
       </c>
@@ -1074,7 +1074,7 @@
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
         <v>11</v>
       </c>
@@ -1082,69 +1082,69 @@
         <v>26</v>
       </c>
       <c r="D28" s="11"/>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="11">
+        <v>858992</v>
+      </c>
+      <c r="F28" s="11">
+        <v>816677</v>
+      </c>
+      <c r="G28" s="11">
+        <v>1008158</v>
+      </c>
+      <c r="H28" s="11">
+        <v>793747</v>
+      </c>
+      <c r="I28" s="11">
+        <v>1637046</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F28" s="11">
-        <v>858992</v>
-      </c>
-      <c r="G28" s="11">
-        <v>816677</v>
-      </c>
-      <c r="H28" s="11">
-        <v>1008158</v>
-      </c>
-      <c r="I28" s="11">
-        <v>793747</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>26</v>
       </c>
       <c r="D29" s="13"/>
-      <c r="E29" s="13" t="s">
-        <v>13</v>
+      <c r="E29" s="13">
+        <v>3141996</v>
       </c>
       <c r="F29" s="13">
-        <v>3141996</v>
+        <v>3336473</v>
       </c>
       <c r="G29" s="13">
-        <v>3336473</v>
+        <v>6080370</v>
       </c>
       <c r="H29" s="13">
-        <v>6080370</v>
+        <v>13689300</v>
       </c>
       <c r="I29" s="13">
-        <v>13689300</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13368724</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15">
-        <v>0</v>
+        <v>4000988</v>
       </c>
       <c r="F30" s="15">
-        <v>4000988</v>
+        <v>4153150</v>
       </c>
       <c r="G30" s="15">
-        <v>4153150</v>
+        <v>7088528</v>
       </c>
       <c r="H30" s="15">
-        <v>7088528</v>
+        <v>14483047</v>
       </c>
       <c r="I30" s="15">
-        <v>14483047</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15005770</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>27</v>
       </c>
@@ -1156,53 +1156,53 @@
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="11"/>
-      <c r="E32" s="11" t="s">
-        <v>13</v>
+      <c r="E32" s="11">
+        <v>69844445</v>
       </c>
       <c r="F32" s="11">
-        <v>69844445</v>
+        <v>73878798</v>
       </c>
       <c r="G32" s="11">
-        <v>73878798</v>
+        <v>136146240</v>
       </c>
       <c r="H32" s="11">
-        <v>136146240</v>
+        <v>178145397</v>
       </c>
       <c r="I32" s="11">
-        <v>178145397</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+        <v>199207836</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
       <c r="E33" s="17">
-        <v>0</v>
+        <v>69844445</v>
       </c>
       <c r="F33" s="17">
-        <v>69844445</v>
+        <v>73878798</v>
       </c>
       <c r="G33" s="17">
-        <v>73878798</v>
+        <v>136146240</v>
       </c>
       <c r="H33" s="17">
-        <v>136146240</v>
+        <v>178145397</v>
       </c>
       <c r="I33" s="17">
-        <v>178145397</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+        <v>199207836</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="18" t="s">
         <v>28</v>
       </c>
@@ -1214,9 +1214,9 @@
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
@@ -1236,16 +1236,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C36" s="17" t="s">
         <v>26</v>
       </c>
       <c r="D36" s="17"/>
-      <c r="E36" s="17" t="s">
-        <v>13</v>
+      <c r="E36" s="17">
+        <v>0</v>
       </c>
       <c r="F36" s="17">
         <v>0</v>
@@ -1253,14 +1253,14 @@
       <c r="G36" s="17">
         <v>0</v>
       </c>
-      <c r="H36" s="17">
-        <v>0</v>
+      <c r="H36" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="I36" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
         <v>22</v>
       </c>
@@ -1268,8 +1268,8 @@
         <v>26</v>
       </c>
       <c r="D37" s="15"/>
-      <c r="E37" s="15" t="s">
-        <v>13</v>
+      <c r="E37" s="15">
+        <v>0</v>
       </c>
       <c r="F37" s="15">
         <v>0</v>
@@ -1284,29 +1284,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C38" s="17"/>
       <c r="D38" s="17"/>
       <c r="E38" s="17">
-        <v>0</v>
+        <v>73845433</v>
       </c>
       <c r="F38" s="17">
-        <v>73845433</v>
+        <v>78031948</v>
       </c>
       <c r="G38" s="17">
-        <v>78031948</v>
+        <v>143234768</v>
       </c>
       <c r="H38" s="17">
-        <v>143234768</v>
+        <v>192628444</v>
       </c>
       <c r="I38" s="17">
-        <v>192628444</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+        <v>214213606</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1316,7 +1316,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1326,7 +1326,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1336,7 +1336,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B42" s="7" t="s">
         <v>29</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1368,7 +1368,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>30</v>
       </c>
@@ -1380,7 +1380,7 @@
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>11</v>
       </c>
@@ -1388,47 +1388,47 @@
         <v>31</v>
       </c>
       <c r="D45" s="11"/>
-      <c r="E45" s="11" t="s">
+      <c r="E45" s="11">
+        <v>444119</v>
+      </c>
+      <c r="F45" s="11">
+        <v>672129</v>
+      </c>
+      <c r="G45" s="11">
+        <v>801223</v>
+      </c>
+      <c r="H45" s="11">
+        <v>801222</v>
+      </c>
+      <c r="I45" s="11">
+        <v>1802749</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B46" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F45" s="11">
-        <v>444119</v>
-      </c>
-      <c r="G45" s="11">
-        <v>672129</v>
-      </c>
-      <c r="H45" s="11">
-        <v>801223</v>
-      </c>
-      <c r="I45" s="11">
-        <v>801222</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="C46" s="13" t="s">
         <v>31</v>
       </c>
       <c r="D46" s="13"/>
-      <c r="E46" s="13" t="s">
-        <v>13</v>
+      <c r="E46" s="13">
+        <v>18470921</v>
       </c>
       <c r="F46" s="13">
-        <v>18470921</v>
+        <v>21010668</v>
       </c>
       <c r="G46" s="13">
-        <v>21010668</v>
+        <v>36312857</v>
       </c>
       <c r="H46" s="13">
-        <v>36312857</v>
+        <v>66810641</v>
       </c>
       <c r="I46" s="13">
-        <v>66810641</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+        <v>71609597</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>32</v>
       </c>
@@ -1440,31 +1440,31 @@
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>31</v>
       </c>
       <c r="D48" s="11"/>
-      <c r="E48" s="11" t="s">
-        <v>13</v>
+      <c r="E48" s="11">
+        <v>25889245</v>
       </c>
       <c r="F48" s="11">
-        <v>25889245</v>
+        <v>27776031</v>
       </c>
       <c r="G48" s="11">
-        <v>27776031</v>
+        <v>47804527</v>
       </c>
       <c r="H48" s="11">
-        <v>47804527</v>
+        <v>79420701</v>
       </c>
       <c r="I48" s="11">
-        <v>79420701</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+        <v>87623584</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1474,7 +1474,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1484,7 +1484,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1494,7 +1494,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B52" s="7" t="s">
         <v>33</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1526,7 +1526,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>34</v>
       </c>
@@ -1538,7 +1538,7 @@
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>11</v>
       </c>
@@ -1546,69 +1546,69 @@
         <v>26</v>
       </c>
       <c r="D55" s="11"/>
-      <c r="E55" s="11" t="s">
+      <c r="E55" s="11">
+        <v>-91973</v>
+      </c>
+      <c r="F55" s="11">
+        <v>-85619</v>
+      </c>
+      <c r="G55" s="11">
+        <v>-107695</v>
+      </c>
+      <c r="H55" s="11">
+        <v>-146927</v>
+      </c>
+      <c r="I55" s="11">
+        <v>-197170</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B56" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F55" s="11">
-        <v>-91973</v>
-      </c>
-      <c r="G55" s="11">
-        <v>-85619</v>
-      </c>
-      <c r="H55" s="11">
-        <v>-107695</v>
-      </c>
-      <c r="I55" s="11">
-        <v>-146927</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="C56" s="13" t="s">
         <v>26</v>
       </c>
       <c r="D56" s="13"/>
-      <c r="E56" s="13" t="s">
-        <v>13</v>
+      <c r="E56" s="13">
+        <v>-1764040</v>
       </c>
       <c r="F56" s="13">
-        <v>-1764040</v>
+        <v>-1988673</v>
       </c>
       <c r="G56" s="13">
-        <v>-1988673</v>
+        <v>-3400416</v>
       </c>
       <c r="H56" s="13">
-        <v>-3400416</v>
+        <v>-11055048</v>
       </c>
       <c r="I56" s="13">
-        <v>-11055048</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-11166820</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
       <c r="E57" s="15">
-        <v>0</v>
+        <v>-1856013</v>
       </c>
       <c r="F57" s="15">
-        <v>-1856013</v>
+        <v>-2074292</v>
       </c>
       <c r="G57" s="15">
-        <v>-2074292</v>
+        <v>-3508111</v>
       </c>
       <c r="H57" s="15">
-        <v>-3508111</v>
+        <v>-11201975</v>
       </c>
       <c r="I57" s="15">
-        <v>-11201975</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-11363990</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>36</v>
       </c>
@@ -1620,53 +1620,53 @@
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C59" s="11" t="s">
         <v>26</v>
       </c>
       <c r="D59" s="11"/>
-      <c r="E59" s="11" t="s">
-        <v>13</v>
+      <c r="E59" s="11">
+        <v>-27977177</v>
       </c>
       <c r="F59" s="11">
-        <v>-27977177</v>
+        <v>-33309266</v>
       </c>
       <c r="G59" s="11">
-        <v>-33309266</v>
+        <v>-57836113</v>
       </c>
       <c r="H59" s="11">
-        <v>-57836113</v>
+        <v>-121022448</v>
       </c>
       <c r="I59" s="11">
-        <v>-121022448</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-135986620</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C60" s="17"/>
       <c r="D60" s="17"/>
       <c r="E60" s="17">
-        <v>0</v>
+        <v>-27977177</v>
       </c>
       <c r="F60" s="17">
-        <v>-27977177</v>
+        <v>-33309266</v>
       </c>
       <c r="G60" s="17">
-        <v>-33309266</v>
+        <v>-57836113</v>
       </c>
       <c r="H60" s="17">
-        <v>-57836113</v>
+        <v>-121022448</v>
       </c>
       <c r="I60" s="17">
-        <v>-121022448</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-135986620</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="18" t="s">
         <v>38</v>
       </c>
@@ -1678,7 +1678,7 @@
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="14" t="s">
         <v>39</v>
       </c>
@@ -1700,16 +1700,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C63" s="17" t="s">
         <v>26</v>
       </c>
       <c r="D63" s="17"/>
-      <c r="E63" s="17" t="s">
-        <v>13</v>
+      <c r="E63" s="17">
+        <v>0</v>
       </c>
       <c r="F63" s="17">
         <v>0</v>
@@ -1717,14 +1717,14 @@
       <c r="G63" s="17">
         <v>0</v>
       </c>
-      <c r="H63" s="17">
-        <v>0</v>
+      <c r="H63" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="I63" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="14" t="s">
         <v>22</v>
       </c>
@@ -1732,8 +1732,8 @@
         <v>26</v>
       </c>
       <c r="D64" s="15"/>
-      <c r="E64" s="15" t="s">
-        <v>13</v>
+      <c r="E64" s="15">
+        <v>0</v>
       </c>
       <c r="F64" s="15">
         <v>0</v>
@@ -1748,29 +1748,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C65" s="17"/>
       <c r="D65" s="17"/>
       <c r="E65" s="17">
-        <v>0</v>
+        <v>-29833190</v>
       </c>
       <c r="F65" s="17">
-        <v>-29833190</v>
+        <v>-35383558</v>
       </c>
       <c r="G65" s="17">
-        <v>-35383558</v>
+        <v>-61344224</v>
       </c>
       <c r="H65" s="17">
-        <v>-61344224</v>
+        <v>-132224423</v>
       </c>
       <c r="I65" s="17">
-        <v>-132224423</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-147350610</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1780,7 +1780,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1790,7 +1790,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1800,7 +1800,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B69" s="7" t="s">
         <v>40</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1832,7 +1832,7 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>41</v>
       </c>
@@ -1844,7 +1844,7 @@
       <c r="H71" s="9"/>
       <c r="I71" s="9"/>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>11</v>
       </c>
@@ -1852,69 +1852,69 @@
         <v>26</v>
       </c>
       <c r="D72" s="11"/>
-      <c r="E72" s="11" t="s">
+      <c r="E72" s="11">
+        <v>767019</v>
+      </c>
+      <c r="F72" s="11">
+        <v>731058</v>
+      </c>
+      <c r="G72" s="11">
+        <v>900463</v>
+      </c>
+      <c r="H72" s="11">
+        <v>646820</v>
+      </c>
+      <c r="I72" s="11">
+        <v>1439876</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B73" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F72" s="11">
-        <v>767019</v>
-      </c>
-      <c r="G72" s="11">
-        <v>731058</v>
-      </c>
-      <c r="H72" s="11">
-        <v>900463</v>
-      </c>
-      <c r="I72" s="11">
-        <v>646820</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="C73" s="13" t="s">
         <v>26</v>
       </c>
       <c r="D73" s="13"/>
-      <c r="E73" s="13" t="s">
-        <v>13</v>
+      <c r="E73" s="13">
+        <v>1377956</v>
       </c>
       <c r="F73" s="13">
-        <v>1377956</v>
+        <v>1347800</v>
       </c>
       <c r="G73" s="13">
-        <v>1347800</v>
+        <v>2679954</v>
       </c>
       <c r="H73" s="13">
-        <v>2679954</v>
+        <v>2634252</v>
       </c>
       <c r="I73" s="13">
-        <v>2634252</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2201904</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
       <c r="E74" s="15">
-        <v>0</v>
+        <v>2144975</v>
       </c>
       <c r="F74" s="15">
-        <v>2144975</v>
+        <v>2078858</v>
       </c>
       <c r="G74" s="15">
-        <v>2078858</v>
+        <v>3580417</v>
       </c>
       <c r="H74" s="15">
-        <v>3580417</v>
+        <v>3281072</v>
       </c>
       <c r="I74" s="15">
-        <v>3281072</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3641780</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>43</v>
       </c>
@@ -1926,53 +1926,53 @@
       <c r="H75" s="9"/>
       <c r="I75" s="9"/>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C76" s="11" t="s">
         <v>26</v>
       </c>
       <c r="D76" s="11"/>
-      <c r="E76" s="11" t="s">
-        <v>13</v>
+      <c r="E76" s="11">
+        <v>41867268</v>
       </c>
       <c r="F76" s="11">
-        <v>41867268</v>
+        <v>40569532</v>
       </c>
       <c r="G76" s="11">
-        <v>40569532</v>
+        <v>78310127</v>
       </c>
       <c r="H76" s="11">
-        <v>78310127</v>
+        <v>57122949</v>
       </c>
       <c r="I76" s="11">
-        <v>57122949</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+        <v>63221216</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="16" t="s">
         <v>44</v>
       </c>
       <c r="C77" s="17"/>
       <c r="D77" s="17"/>
       <c r="E77" s="17">
-        <v>0</v>
+        <v>41867268</v>
       </c>
       <c r="F77" s="17">
-        <v>41867268</v>
+        <v>40569532</v>
       </c>
       <c r="G77" s="17">
-        <v>40569532</v>
+        <v>78310127</v>
       </c>
       <c r="H77" s="17">
-        <v>78310127</v>
+        <v>57122949</v>
       </c>
       <c r="I77" s="17">
-        <v>57122949</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+        <v>63221216</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="18" t="s">
         <v>45</v>
       </c>
@@ -1984,7 +1984,7 @@
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="14" t="s">
         <v>46</v>
       </c>
@@ -2006,26 +2006,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C80" s="17"/>
       <c r="D80" s="17"/>
       <c r="E80" s="17">
-        <v>0</v>
+        <v>44012243</v>
       </c>
       <c r="F80" s="17">
-        <v>44012243</v>
+        <v>42648390</v>
       </c>
       <c r="G80" s="17">
-        <v>42648390</v>
+        <v>81890544</v>
       </c>
       <c r="H80" s="17">
-        <v>81890544</v>
+        <v>60404021</v>
       </c>
       <c r="I80" s="17">
-        <v>60404021</v>
+        <v>66862996</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/methanol/zagros/product/yearly_seprated.xlsx
+++ b/database/industries/methanol/zagros/product/yearly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\zagros\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\methanol\zagros\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2269E636-BCB3-40DD-B3D6-DD35669E9F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F9BD14-1E40-4733-8F21-AA37C2442143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="708" windowWidth="18204" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="47">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -55,15 +55,15 @@
     <t>مقدار فروش داخلی</t>
   </si>
   <si>
+    <t>متانول</t>
+  </si>
+  <si>
+    <t>تن</t>
+  </si>
+  <si>
     <t>بخار</t>
   </si>
   <si>
-    <t>تن</t>
-  </si>
-  <si>
-    <t>متانول</t>
-  </si>
-  <si>
     <t>جمع فروش داخلی</t>
   </si>
   <si>
@@ -121,7 +121,7 @@
     <t>نرخ فروش خارجی</t>
   </si>
   <si>
-    <t>بهای تمام شده</t>
+    <t>مبلغ بهای تمام شده</t>
   </si>
   <si>
     <t>بهای تمام شده داخلی</t>
@@ -224,13 +224,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EFFB"/>
+        <fgColor rgb="FFF5F5F5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF5F5F5"/>
+        <fgColor rgb="FFD9EFFB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,16 +289,16 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -307,10 +307,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -319,10 +319,10 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -639,7 +639,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I80"/>
+  <dimension ref="B1:I87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -759,9 +759,7 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="B10" s="8"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -772,243 +770,245 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11">
+      <c r="D12" s="9"/>
+      <c r="E12" s="9">
+        <v>170105</v>
+      </c>
+      <c r="F12" s="9">
+        <v>158799</v>
+      </c>
+      <c r="G12" s="9">
+        <v>167444</v>
+      </c>
+      <c r="H12" s="9">
+        <v>204897</v>
+      </c>
+      <c r="I12" s="9">
+        <v>186689</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13">
         <v>1934147</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F13" s="13">
         <v>1215060</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G13" s="13">
         <v>1258274</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H13" s="13">
         <v>990671</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I13" s="13">
         <v>908083</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13">
-        <v>170105</v>
-      </c>
-      <c r="F12" s="13">
-        <v>158799</v>
-      </c>
-      <c r="G12" s="13">
-        <v>167444</v>
-      </c>
-      <c r="H12" s="13">
-        <v>204897</v>
-      </c>
-      <c r="I12" s="13">
-        <v>186689</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="14" t="s">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15">
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15">
         <v>2104252</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F14" s="15">
         <v>1373859</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G14" s="15">
         <v>1425718</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H14" s="15">
         <v>1195568</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I14" s="15">
         <v>1094772</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9">
         <v>2697817</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F16" s="9">
         <v>2659804</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G16" s="9">
         <v>2847978</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H16" s="9">
         <v>2243060</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I16" s="9">
         <v>2273450</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="16" t="s">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17">
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17">
         <v>2697817</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F17" s="17">
         <v>2659804</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G17" s="17">
         <v>2847978</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H17" s="17">
         <v>2243060</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I17" s="17">
         <v>2273450</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="18" t="s">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="14" t="s">
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15">
-        <v>0</v>
-      </c>
-      <c r="F18" s="15">
-        <v>0</v>
-      </c>
-      <c r="G18" s="15">
-        <v>0</v>
-      </c>
-      <c r="H18" s="15">
-        <v>0</v>
-      </c>
-      <c r="I18" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="16" t="s">
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15">
+        <v>0</v>
+      </c>
+      <c r="F19" s="15">
+        <v>0</v>
+      </c>
+      <c r="G19" s="15">
+        <v>0</v>
+      </c>
+      <c r="H19" s="15">
+        <v>0</v>
+      </c>
+      <c r="I19" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C20" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17">
-        <v>0</v>
-      </c>
-      <c r="F19" s="17">
-        <v>0</v>
-      </c>
-      <c r="G19" s="17">
-        <v>0</v>
-      </c>
-      <c r="H19" s="17" t="s">
+      <c r="D20" s="17"/>
+      <c r="E20" s="17">
+        <v>0</v>
+      </c>
+      <c r="F20" s="17">
+        <v>0</v>
+      </c>
+      <c r="G20" s="17">
+        <v>0</v>
+      </c>
+      <c r="H20" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="17" t="s">
+      <c r="I20" s="17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="14" t="s">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15">
-        <v>0</v>
-      </c>
-      <c r="F20" s="15">
-        <v>0</v>
-      </c>
-      <c r="G20" s="15">
-        <v>0</v>
-      </c>
-      <c r="H20" s="15">
-        <v>0</v>
-      </c>
-      <c r="I20" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="16" t="s">
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15">
+        <v>0</v>
+      </c>
+      <c r="F21" s="15">
+        <v>0</v>
+      </c>
+      <c r="G21" s="15">
+        <v>0</v>
+      </c>
+      <c r="H21" s="15">
+        <v>0</v>
+      </c>
+      <c r="I21" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17">
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17">
         <v>4802069</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F22" s="17">
         <v>4033663</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G22" s="17">
         <v>4273696</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H22" s="17">
         <v>3438628</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I22" s="17">
         <v>3368222</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
@@ -1030,243 +1030,215 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B25" s="7" t="s">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B26" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6" t="s">
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F26" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G26" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H26" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="I26" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-    </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="8"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="10" t="s">
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C30" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11">
+      <c r="D30" s="9"/>
+      <c r="E30" s="9">
+        <v>3141996</v>
+      </c>
+      <c r="F30" s="9">
+        <v>3336473</v>
+      </c>
+      <c r="G30" s="9">
+        <v>6080370</v>
+      </c>
+      <c r="H30" s="9">
+        <v>13689300</v>
+      </c>
+      <c r="I30" s="9">
+        <v>13368724</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13">
         <v>858992</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F31" s="13">
         <v>816677</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G31" s="13">
         <v>1008158</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H31" s="13">
         <v>793747</v>
       </c>
-      <c r="I28" s="11">
+      <c r="I31" s="13">
         <v>1637046</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="13" t="s">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15">
+        <v>4000988</v>
+      </c>
+      <c r="F32" s="15">
+        <v>4153150</v>
+      </c>
+      <c r="G32" s="15">
+        <v>7088528</v>
+      </c>
+      <c r="H32" s="15">
+        <v>14483047</v>
+      </c>
+      <c r="I32" s="15">
+        <v>15005770</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B34" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13">
-        <v>3141996</v>
-      </c>
-      <c r="F29" s="13">
-        <v>3336473</v>
-      </c>
-      <c r="G29" s="13">
-        <v>6080370</v>
-      </c>
-      <c r="H29" s="13">
-        <v>13689300</v>
-      </c>
-      <c r="I29" s="13">
-        <v>13368724</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15">
-        <v>4000988</v>
-      </c>
-      <c r="F30" s="15">
-        <v>4153150</v>
-      </c>
-      <c r="G30" s="15">
-        <v>7088528</v>
-      </c>
-      <c r="H30" s="15">
-        <v>14483047</v>
-      </c>
-      <c r="I30" s="15">
-        <v>15005770</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11">
+      <c r="D34" s="9"/>
+      <c r="E34" s="9">
         <v>69844445</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F34" s="9">
         <v>73878798</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G34" s="9">
         <v>136146240</v>
       </c>
-      <c r="H32" s="11">
+      <c r="H34" s="9">
         <v>178145397</v>
       </c>
-      <c r="I32" s="11">
+      <c r="I34" s="9">
         <v>199207836</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="16" t="s">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17">
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17">
         <v>69844445</v>
       </c>
-      <c r="F33" s="17">
+      <c r="F35" s="17">
         <v>73878798</v>
       </c>
-      <c r="G33" s="17">
+      <c r="G35" s="17">
         <v>136146240</v>
       </c>
-      <c r="H33" s="17">
+      <c r="H35" s="17">
         <v>178145397</v>
       </c>
-      <c r="I33" s="17">
+      <c r="I35" s="17">
         <v>199207836</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B34" s="18" t="s">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15">
-        <v>0</v>
-      </c>
-      <c r="F35" s="15">
-        <v>0</v>
-      </c>
-      <c r="G35" s="15">
-        <v>0</v>
-      </c>
-      <c r="H35" s="15">
-        <v>0</v>
-      </c>
-      <c r="I35" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17">
-        <v>0</v>
-      </c>
-      <c r="F36" s="17">
-        <v>0</v>
-      </c>
-      <c r="G36" s="17">
-        <v>0</v>
-      </c>
-      <c r="H36" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I36" s="17" t="s">
-        <v>21</v>
-      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>26</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C37" s="15"/>
       <c r="D37" s="15"/>
       <c r="E37" s="15">
         <v>0</v>
@@ -1286,45 +1258,73 @@
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C38" s="17"/>
+        <v>19</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="D38" s="17"/>
       <c r="E38" s="17">
+        <v>0</v>
+      </c>
+      <c r="F38" s="17">
+        <v>0</v>
+      </c>
+      <c r="G38" s="17">
+        <v>0</v>
+      </c>
+      <c r="H38" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B39" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15">
+        <v>0</v>
+      </c>
+      <c r="F39" s="15">
+        <v>0</v>
+      </c>
+      <c r="G39" s="15">
+        <v>0</v>
+      </c>
+      <c r="H39" s="15">
+        <v>0</v>
+      </c>
+      <c r="I39" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17">
         <v>73845433</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F40" s="17">
         <v>78031948</v>
       </c>
-      <c r="G38" s="17">
+      <c r="G40" s="17">
         <v>143234768</v>
       </c>
-      <c r="H38" s="17">
+      <c r="H40" s="17">
         <v>192628444</v>
       </c>
-      <c r="I38" s="17">
+      <c r="I40" s="17">
         <v>214213606</v>
       </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
@@ -1336,27 +1336,15 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B42" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>9</v>
-      </c>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
@@ -1368,153 +1356,153 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B44" s="8" t="s">
+    <row r="44" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B44" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B46" s="8"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B47" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B45" s="10" t="s">
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B48" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C48" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11">
+      <c r="D48" s="9"/>
+      <c r="E48" s="9">
+        <v>18470921</v>
+      </c>
+      <c r="F48" s="9">
+        <v>21010668</v>
+      </c>
+      <c r="G48" s="9">
+        <v>36312857</v>
+      </c>
+      <c r="H48" s="9">
+        <v>66810641</v>
+      </c>
+      <c r="I48" s="9">
+        <v>71609597</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B49" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13">
         <v>444119</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F49" s="13">
         <v>672129</v>
       </c>
-      <c r="G45" s="11">
+      <c r="G49" s="13">
         <v>801223</v>
       </c>
-      <c r="H45" s="11">
+      <c r="H49" s="13">
         <v>801222</v>
       </c>
-      <c r="I45" s="11">
+      <c r="I49" s="13">
         <v>1802749</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46" s="13" t="s">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B50" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B51" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13">
-        <v>18470921</v>
-      </c>
-      <c r="F46" s="13">
-        <v>21010668</v>
-      </c>
-      <c r="G46" s="13">
-        <v>36312857</v>
-      </c>
-      <c r="H46" s="13">
-        <v>66810641</v>
-      </c>
-      <c r="I46" s="13">
-        <v>71609597</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11">
+      <c r="D51" s="9"/>
+      <c r="E51" s="9">
         <v>25889245</v>
       </c>
-      <c r="F48" s="11">
+      <c r="F51" s="9">
         <v>27776031</v>
       </c>
-      <c r="G48" s="11">
+      <c r="G51" s="9">
         <v>47804527</v>
       </c>
-      <c r="H48" s="11">
+      <c r="H51" s="9">
         <v>79420701</v>
       </c>
-      <c r="I48" s="11">
+      <c r="I51" s="9">
         <v>87623584</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B52" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I52" s="6" t="s">
-        <v>9</v>
-      </c>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
@@ -1527,299 +1515,299 @@
       <c r="I53" s="1"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B55" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B57" s="8"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B58" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B55" s="10" t="s">
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B59" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C59" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11">
+      <c r="D59" s="9"/>
+      <c r="E59" s="9">
+        <v>-1764040</v>
+      </c>
+      <c r="F59" s="9">
+        <v>-1988673</v>
+      </c>
+      <c r="G59" s="9">
+        <v>-3400416</v>
+      </c>
+      <c r="H59" s="9">
+        <v>-11055048</v>
+      </c>
+      <c r="I59" s="9">
+        <v>-10996682</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B60" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13">
         <v>-91973</v>
       </c>
-      <c r="F55" s="11">
+      <c r="F60" s="13">
         <v>-85619</v>
       </c>
-      <c r="G55" s="11">
+      <c r="G60" s="13">
         <v>-107695</v>
       </c>
-      <c r="H55" s="11">
+      <c r="H60" s="13">
         <v>-146927</v>
       </c>
-      <c r="I55" s="11">
+      <c r="I60" s="13">
         <v>-197170</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B56" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C56" s="13" t="s">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B61" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15">
+        <v>-1856013</v>
+      </c>
+      <c r="F61" s="15">
+        <v>-2074292</v>
+      </c>
+      <c r="G61" s="15">
+        <v>-3508111</v>
+      </c>
+      <c r="H61" s="15">
+        <v>-11201975</v>
+      </c>
+      <c r="I61" s="15">
+        <v>-11193852</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B62" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B63" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13">
-        <v>-1764040</v>
-      </c>
-      <c r="F56" s="13">
-        <v>-1988673</v>
-      </c>
-      <c r="G56" s="13">
-        <v>-3400416</v>
-      </c>
-      <c r="H56" s="13">
-        <v>-11055048</v>
-      </c>
-      <c r="I56" s="13">
-        <v>-11166820</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B57" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15">
-        <v>-1856013</v>
-      </c>
-      <c r="F57" s="15">
-        <v>-2074292</v>
-      </c>
-      <c r="G57" s="15">
-        <v>-3508111</v>
-      </c>
-      <c r="H57" s="15">
-        <v>-11201975</v>
-      </c>
-      <c r="I57" s="15">
-        <v>-11363990</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B58" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B59" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C59" s="11" t="s">
+      <c r="D63" s="9"/>
+      <c r="E63" s="9">
+        <v>-27977177</v>
+      </c>
+      <c r="F63" s="9">
+        <v>-33309266</v>
+      </c>
+      <c r="G63" s="9">
+        <v>-57836113</v>
+      </c>
+      <c r="H63" s="9">
+        <v>-121022448</v>
+      </c>
+      <c r="I63" s="9">
+        <v>-133914735</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B64" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17">
+        <v>-27977177</v>
+      </c>
+      <c r="F64" s="17">
+        <v>-33309266</v>
+      </c>
+      <c r="G64" s="17">
+        <v>-57836113</v>
+      </c>
+      <c r="H64" s="17">
+        <v>-121022448</v>
+      </c>
+      <c r="I64" s="17">
+        <v>-133914735</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B65" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="19"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B66" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15">
+        <v>0</v>
+      </c>
+      <c r="F66" s="15">
+        <v>0</v>
+      </c>
+      <c r="G66" s="15">
+        <v>0</v>
+      </c>
+      <c r="H66" s="15">
+        <v>0</v>
+      </c>
+      <c r="I66" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B67" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11">
-        <v>-27977177</v>
-      </c>
-      <c r="F59" s="11">
-        <v>-33309266</v>
-      </c>
-      <c r="G59" s="11">
-        <v>-57836113</v>
-      </c>
-      <c r="H59" s="11">
-        <v>-121022448</v>
-      </c>
-      <c r="I59" s="11">
-        <v>-135986620</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17">
-        <v>-27977177</v>
-      </c>
-      <c r="F60" s="17">
-        <v>-33309266</v>
-      </c>
-      <c r="G60" s="17">
-        <v>-57836113</v>
-      </c>
-      <c r="H60" s="17">
-        <v>-121022448</v>
-      </c>
-      <c r="I60" s="17">
-        <v>-135986620</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B62" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15">
-        <v>0</v>
-      </c>
-      <c r="F62" s="15">
-        <v>0</v>
-      </c>
-      <c r="G62" s="15">
-        <v>0</v>
-      </c>
-      <c r="H62" s="15">
-        <v>0</v>
-      </c>
-      <c r="I62" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B63" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C63" s="17" t="s">
+      <c r="D67" s="17"/>
+      <c r="E67" s="17">
+        <v>0</v>
+      </c>
+      <c r="F67" s="17">
+        <v>0</v>
+      </c>
+      <c r="G67" s="17">
+        <v>0</v>
+      </c>
+      <c r="H67" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I67" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B68" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17">
-        <v>0</v>
-      </c>
-      <c r="F63" s="17">
-        <v>0</v>
-      </c>
-      <c r="G63" s="17">
-        <v>0</v>
-      </c>
-      <c r="H63" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I63" s="17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B64" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C64" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15">
-        <v>0</v>
-      </c>
-      <c r="F64" s="15">
-        <v>0</v>
-      </c>
-      <c r="G64" s="15">
-        <v>0</v>
-      </c>
-      <c r="H64" s="15">
-        <v>0</v>
-      </c>
-      <c r="I64" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B65" s="16" t="s">
+      <c r="D68" s="15"/>
+      <c r="E68" s="15">
+        <v>0</v>
+      </c>
+      <c r="F68" s="15">
+        <v>0</v>
+      </c>
+      <c r="G68" s="15">
+        <v>0</v>
+      </c>
+      <c r="H68" s="15">
+        <v>0</v>
+      </c>
+      <c r="I68" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B69" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C65" s="17"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17">
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17">
         <v>-29833190</v>
       </c>
-      <c r="F65" s="17">
+      <c r="F69" s="17">
         <v>-35383558</v>
       </c>
-      <c r="G65" s="17">
+      <c r="G69" s="17">
         <v>-61344224</v>
       </c>
-      <c r="H65" s="17">
+      <c r="H69" s="17">
         <v>-132224423</v>
       </c>
-      <c r="I65" s="17">
-        <v>-147350610</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B69" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F69" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G69" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H69" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I69" s="6" t="s">
-        <v>9</v>
+      <c r="I69" s="17">
+        <v>-145108587</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.3">
@@ -1833,91 +1821,59 @@
       <c r="I70" s="1"/>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B71" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B72" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C72" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11">
-        <v>767019</v>
-      </c>
-      <c r="F72" s="11">
-        <v>731058</v>
-      </c>
-      <c r="G72" s="11">
-        <v>900463</v>
-      </c>
-      <c r="H72" s="11">
-        <v>646820</v>
-      </c>
-      <c r="I72" s="11">
-        <v>1439876</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B73" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C73" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13">
-        <v>1377956</v>
-      </c>
-      <c r="F73" s="13">
-        <v>1347800</v>
-      </c>
-      <c r="G73" s="13">
-        <v>2679954</v>
-      </c>
-      <c r="H73" s="13">
-        <v>2634252</v>
-      </c>
-      <c r="I73" s="13">
-        <v>2201904</v>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+    </row>
+    <row r="73" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B73" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I73" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B74" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="15">
-        <v>2144975</v>
-      </c>
-      <c r="F74" s="15">
-        <v>2078858</v>
-      </c>
-      <c r="G74" s="15">
-        <v>3580417</v>
-      </c>
-      <c r="H74" s="15">
-        <v>3281072</v>
-      </c>
-      <c r="I74" s="15">
-        <v>3641780</v>
-      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B75" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="B75" s="8"/>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
@@ -1928,104 +1884,246 @@
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B77" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9">
+        <v>1377956</v>
+      </c>
+      <c r="F77" s="9">
+        <v>1347800</v>
+      </c>
+      <c r="G77" s="9">
+        <v>2679954</v>
+      </c>
+      <c r="H77" s="9">
+        <v>2634252</v>
+      </c>
+      <c r="I77" s="9">
+        <v>2372042</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B78" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="C78" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D76" s="11"/>
-      <c r="E76" s="11">
-        <v>41867268</v>
-      </c>
-      <c r="F76" s="11">
-        <v>40569532</v>
-      </c>
-      <c r="G76" s="11">
-        <v>78310127</v>
-      </c>
-      <c r="H76" s="11">
-        <v>57122949</v>
-      </c>
-      <c r="I76" s="11">
-        <v>63221216</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B77" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C77" s="17"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="17">
-        <v>41867268</v>
-      </c>
-      <c r="F77" s="17">
-        <v>40569532</v>
-      </c>
-      <c r="G77" s="17">
-        <v>78310127</v>
-      </c>
-      <c r="H77" s="17">
-        <v>57122949</v>
-      </c>
-      <c r="I77" s="17">
-        <v>63221216</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B78" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C78" s="19"/>
-      <c r="D78" s="19"/>
-      <c r="E78" s="19"/>
-      <c r="F78" s="19"/>
-      <c r="G78" s="19"/>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13">
+        <v>767019</v>
+      </c>
+      <c r="F78" s="13">
+        <v>731058</v>
+      </c>
+      <c r="G78" s="13">
+        <v>900463</v>
+      </c>
+      <c r="H78" s="13">
+        <v>646820</v>
+      </c>
+      <c r="I78" s="13">
+        <v>1439876</v>
+      </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C79" s="15"/>
       <c r="D79" s="15"/>
       <c r="E79" s="15">
-        <v>0</v>
+        <v>2144975</v>
       </c>
       <c r="F79" s="15">
-        <v>0</v>
+        <v>2078858</v>
       </c>
       <c r="G79" s="15">
-        <v>0</v>
+        <v>3580417</v>
       </c>
       <c r="H79" s="15">
-        <v>0</v>
+        <v>3281072</v>
       </c>
       <c r="I79" s="15">
-        <v>0</v>
+        <v>3811918</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B80" s="16" t="s">
+      <c r="B80" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B81" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9">
+        <v>41867268</v>
+      </c>
+      <c r="F81" s="9">
+        <v>40569532</v>
+      </c>
+      <c r="G81" s="9">
+        <v>78310127</v>
+      </c>
+      <c r="H81" s="9">
+        <v>57122949</v>
+      </c>
+      <c r="I81" s="9">
+        <v>65293101</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B82" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17">
+        <v>41867268</v>
+      </c>
+      <c r="F82" s="17">
+        <v>40569532</v>
+      </c>
+      <c r="G82" s="17">
+        <v>78310127</v>
+      </c>
+      <c r="H82" s="17">
+        <v>57122949</v>
+      </c>
+      <c r="I82" s="17">
+        <v>65293101</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B83" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C83" s="19"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="19"/>
+      <c r="H83" s="19"/>
+      <c r="I83" s="19"/>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B84" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C84" s="15"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15">
+        <v>0</v>
+      </c>
+      <c r="F84" s="15">
+        <v>0</v>
+      </c>
+      <c r="G84" s="15">
+        <v>0</v>
+      </c>
+      <c r="H84" s="15">
+        <v>0</v>
+      </c>
+      <c r="I84" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B85" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F85" s="13">
+        <v>0</v>
+      </c>
+      <c r="G85" s="13">
+        <v>0</v>
+      </c>
+      <c r="H85" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I85" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B86" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F86" s="9">
+        <v>0</v>
+      </c>
+      <c r="G86" s="9">
+        <v>0</v>
+      </c>
+      <c r="H86" s="9">
+        <v>0</v>
+      </c>
+      <c r="I86" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B87" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C80" s="17"/>
-      <c r="D80" s="17"/>
-      <c r="E80" s="17">
+      <c r="C87" s="17"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="17">
         <v>44012243</v>
       </c>
-      <c r="F80" s="17">
+      <c r="F87" s="17">
         <v>42648390</v>
       </c>
-      <c r="G80" s="17">
+      <c r="G87" s="17">
         <v>81890544</v>
       </c>
-      <c r="H80" s="17">
+      <c r="H87" s="17">
         <v>60404021</v>
       </c>
-      <c r="I80" s="17">
-        <v>66862996</v>
+      <c r="I87" s="17">
+        <v>69105019</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/methanol/zagros/product/yearly_seprated.xlsx
+++ b/database/industries/methanol/zagros/product/yearly_seprated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\methanol\zagros\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F9BD14-1E40-4733-8F21-AA37C2442143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DF6817-C9FD-47AB-BA74-6195B6C5CE00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="708" windowWidth="18204" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -79,6 +79,9 @@
     <t>جمع فروش خدمات</t>
   </si>
   <si>
+    <t>سایر / تخفیفات</t>
+  </si>
+  <si>
     <t>برگشت از فروش</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>سایر / تخفیفات</t>
   </si>
   <si>
     <t>جمع</t>
@@ -946,9 +946,7 @@
       <c r="B20" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="17" t="s">
-        <v>20</v>
-      </c>
+      <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17">
         <v>0</v>
@@ -959,18 +957,20 @@
       <c r="G20" s="17">
         <v>0</v>
       </c>
-      <c r="H20" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20" s="17" t="s">
-        <v>21</v>
+      <c r="H20" s="17">
+        <v>0</v>
+      </c>
+      <c r="I20" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="15"/>
+        <v>20</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>21</v>
+      </c>
       <c r="D21" s="15"/>
       <c r="E21" s="15">
         <v>0</v>
@@ -981,11 +981,11 @@
       <c r="G21" s="15">
         <v>0</v>
       </c>
-      <c r="H21" s="15">
-        <v>0</v>
-      </c>
-      <c r="I21" s="15">
-        <v>0</v>
+      <c r="H21" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
@@ -1273,16 +1273,16 @@
       <c r="G38" s="17">
         <v>0</v>
       </c>
-      <c r="H38" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I38" s="17" t="s">
-        <v>21</v>
+      <c r="H38" s="17">
+        <v>0</v>
+      </c>
+      <c r="I38" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>26</v>
@@ -1297,11 +1297,11 @@
       <c r="G39" s="15">
         <v>0</v>
       </c>
-      <c r="H39" s="15">
-        <v>0</v>
-      </c>
-      <c r="I39" s="15">
-        <v>0</v>
+      <c r="H39" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
@@ -1757,16 +1757,16 @@
       <c r="G67" s="17">
         <v>0</v>
       </c>
-      <c r="H67" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I67" s="17" t="s">
-        <v>21</v>
+      <c r="H67" s="17">
+        <v>0</v>
+      </c>
+      <c r="I67" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C68" s="15" t="s">
         <v>26</v>
@@ -1781,11 +1781,11 @@
       <c r="G68" s="15">
         <v>0</v>
       </c>
-      <c r="H68" s="15">
-        <v>0</v>
-      </c>
-      <c r="I68" s="15">
-        <v>0</v>
+      <c r="H68" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I68" s="15" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.3">
@@ -2065,7 +2065,7 @@
       </c>
       <c r="D85" s="13"/>
       <c r="E85" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F85" s="13">
         <v>0</v>
@@ -2073,23 +2073,23 @@
       <c r="G85" s="13">
         <v>0</v>
       </c>
-      <c r="H85" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I85" s="13" t="s">
-        <v>21</v>
+      <c r="H85" s="13">
+        <v>0</v>
+      </c>
+      <c r="I85" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C86" s="9" t="s">
         <v>26</v>
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F86" s="9">
         <v>0</v>
@@ -2097,11 +2097,11 @@
       <c r="G86" s="9">
         <v>0</v>
       </c>
-      <c r="H86" s="9">
-        <v>0</v>
-      </c>
-      <c r="I86" s="9">
-        <v>0</v>
+      <c r="H86" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I86" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.3">
